--- a/biology/Médecine/René_Jacquemaire/René_Jacquemaire.xlsx
+++ b/biology/Médecine/René_Jacquemaire/René_Jacquemaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Jacquemaire</t>
+          <t>René_Jacquemaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Jacquemaire, ou René Jacquemaire-Clemenceau (Paris, 14 octobre 1894 - Paris, 10 juillet 1931[1]), est un médecin français, fils de Numa Jacquemaire, avocat à la cour d'appel de Paris, et de Madeleine Clemenceau, fille de Georges Clemenceau.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Jacquemaire, ou René Jacquemaire-Clemenceau (Paris, 14 octobre 1894 - Paris, 10 juillet 1931), est un médecin français, fils de Numa Jacquemaire, avocat à la cour d'appel de Paris, et de Madeleine Clemenceau, fille de Georges Clemenceau.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Jacquemaire</t>
+          <t>René_Jacquemaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René Jacquemaire se marie à Marie-Blanche di Pietro (1897-1958), fille du comte Emilio di Pietro et de Jeanne Lanvin, et qui se remarie en secondes noces au comte Jean de Polignac (1888-1943). Il est l'un des promoteurs de la radiologie en France et décède à seulement 37 ans, victime d'une exposition trop importante et prolongée aux rayons X.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Jacquemaire</t>
+          <t>René_Jacquemaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur.</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Jacquemaire</t>
+          <t>René_Jacquemaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Odonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue du 15e arrondissement de Paris, la rue du Docteur-Jacquemaire-Clemenceau, longeant le square Saint-Lambert, porte son nom depuis 1932 et un buste (aujourd'hui disparu) était apposé sur un immeuble de cette rue avec la mention « Victime de la Science ». Précédemment, une place dans le même arrondissement portait son nom.[réf. nécessaire]
 </t>
